--- a/Security_Hotspot_comparison.xlsx
+++ b/Security_Hotspot_comparison.xlsx
@@ -142,7 +142,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>5</col>
+      <col>6</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,15 +473,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Clean Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Security Hotspot (March)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Security Hotspot (April)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Security Hotspot Difference</t>
         </is>
@@ -490,161 +495,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33</v>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>react-ronreload-frontend</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-blocks-configuration_AYlO0o22_aRx5xCzLsE2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>49</v>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-corporatewebsite</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>-16</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>84</v>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>angular-sln-at</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>-8</v>
+        <v>194</v>
+      </c>
+      <c r="D4" t="n">
+        <v>195</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-brandwebsite</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>194</v>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>angular-moveit-business</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>195</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
+          <t>l3-angular-ipex-business</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>angular-ipex-business</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-net-generic-signature_AYledlGt_aRx5xCzLsQC</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>44</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>-21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>13</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>-8</v>
       </c>
     </row>
   </sheetData>

--- a/Security_Hotspot_comparison.xlsx
+++ b/Security_Hotspot_comparison.xlsx
@@ -142,7 +142,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -452,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,20 +473,25 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Clean Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Security Hotspot (March)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Security Hotspot (April)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Security Hotspot Difference</t>
         </is>
@@ -500,126 +505,130 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>react-ronreload-frontend</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-brandwebsite</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>-1</v>
+      <c r="F3" s="2" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>194</v>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>angular-moveit-business</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>195</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>angular-sln-at</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-5</v>
+        <v>194</v>
+      </c>
+      <c r="E5" t="n">
+        <v>195</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>laravel-pharmalys-corporatewebsite</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>l3-angular-ipex-business</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>angular-ipex-business</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>84</v>
-      </c>
-      <c r="D7" t="n">
-        <v>76</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>-8</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Security_Hotspot_comparison.xlsx
+++ b/Security_Hotspot_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,43 +510,43 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>angular-sln-at</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -571,40 +571,40 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>react-ronreload-frontend</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>195</v>
-      </c>
-      <c r="F5" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -614,17 +614,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>-1</v>
+      <c r="F6" s="1" t="n">
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/Security_Hotspot_comparison.xlsx
+++ b/Security_Hotspot_comparison.xlsx
@@ -452,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Security Hotspot (March)</t>
+          <t>Security Hotspot (first)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Security Hotspot (April)</t>
+          <t>Security Hotspot (second)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -500,33 +500,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-1</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,99 +536,515 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-moveit-business_AZFGoVgpgH6yUMlbiCAj</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>angular-moveit-business</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-react-ronreload-frontend_af4cf0c3-5db4-4fbd-a153-4f5b0e7c58ae</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>react-ronreload-frontend</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>l3-angular-ipex-business</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>angular-ipex-business</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>l3-angular-crm-sko</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>angular-crm-sko</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>52</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>l3-angular-sln-fcsk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>angular-sln-fcsk</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>103</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>stage</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D9" t="n">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>-5</v>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>l3-net-finsy-business</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>net-finsy-business</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>wordpress-ibcchur-website</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>54</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>angular-gensubway-backoffice</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>22</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>angular-magnethub-business</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>angular-addexpert-hrm</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>angular-sln-at</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>195</v>
+      </c>
+      <c r="E15" t="n">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>l3-net-lunge-business</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>net-lunge-business</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E16" t="n">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>l3-angular-sln-fccz</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>angular-sln-fccz</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>210</v>
+      </c>
+      <c r="E17" t="n">
+        <v>102</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>wordpress-bagelboys-website</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>149</v>
+      </c>
+      <c r="E18" t="n">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>l3-laravel-vicafe-erp</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>laravel-vicafe-erp</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>l3-angular-lunge-business</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>stg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>angular-lunge-business</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>68</v>
+      </c>
+      <c r="E20" t="n">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>laravel-ronreload-backend</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>634</v>
+      </c>
+      <c r="E21" t="n">
+        <v>104</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-530</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>stg-aks</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>angular-ipex-upload</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>53</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Security_Hotspot_comparison.xlsx
+++ b/Security_Hotspot_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,75 +510,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>net-finsy-business</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>angular-ipex-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,75 +588,75 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>angular-sln-at</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>13</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>angular-ipex-business</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>-40</v>
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l3-angular-crm-sko</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>angular-crm-sko</t>
+          <t>wordpress-bagelboys-website</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>-3</v>
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>l3-angular-lunge-business</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,127 +666,127 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>angular-sln-fcsk</t>
+          <t>angular-lunge-business</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>-59</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-net-finsy-business</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>net-finsy-business</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>angular-magnethub-business</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>-26</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>-9</v>
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+          <t>l3-angular-crm-sko</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -796,49 +796,49 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>angular-magnethub-business</t>
+          <t>angular-crm-sko</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>-31</v>
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>angular-addexpert-hrm</t>
+          <t>angular-ipex-upload</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>-8</v>
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>l3-net-lunge-business</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -848,23 +848,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>net-lunge-business</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-91</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -874,75 +874,75 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>net-lunge-business</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>l3-laravel-vicafe-erp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>laravel-vicafe-erp</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>-108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>wordpress-bagelboys-website</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>-107</v>
+        <v>117</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>-97</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>l3-laravel-vicafe-erp</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -952,23 +952,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>laravel-vicafe-erp</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>634</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2</v>
+        <v>-530</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>l3-angular-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -978,69 +978,69 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>angular-lunge-business</t>
+          <t>angular-addexpert-hrm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>-35</v>
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>l3-angular-sln-fcsk</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>angular-sln-fcsk</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>634</v>
+        <v>103</v>
       </c>
       <c r="E21" t="n">
-        <v>104</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>-530</v>
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>angular-ipex-upload</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>-35</v>
+        <v>102</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-108</v>
       </c>
     </row>
   </sheetData>

--- a/Security_Hotspot_comparison.xlsx
+++ b/Security_Hotspot_comparison.xlsx
@@ -35,14 +35,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l3-net-finsy-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,75 +510,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>net-finsy-business</t>
+          <t>angular-sln-at</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>7</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
+          <t>l3-angular-lunge-business</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-ipex-business</t>
+          <t>angular-lunge-business</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-40</v>
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>13</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,49 +588,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-91</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>angular-ipex-business</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>-10</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -640,23 +640,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wordpress-bagelboys-website</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>-107</v>
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-angular-lunge-business</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,23 +666,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>angular-lunge-business</t>
+          <t>net-finsy-business</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -692,49 +692,49 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="E9" t="n">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>l3-angular-sln-fcsk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>angular-sln-fcsk</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-4</v>
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -744,43 +744,43 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>angular-magnethub-business</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-31</v>
+        <v>117</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>-97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>angular-magnethub-business</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-26</v>
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-31</v>
       </c>
     </row>
     <row r="13">
@@ -805,92 +805,92 @@
       <c r="E13" t="n">
         <v>49</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="1" t="n">
         <v>-3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
+          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>angular-ipex-upload</t>
+          <t>angular-addexpert-hrm</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-35</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>l3-laravel-vicafe-erp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>net-lunge-business</t>
+          <t>laravel-vicafe-erp</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>634</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-9</v>
+        <v>104</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-530</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l3-laravel-vicafe-erp</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -900,101 +900,101 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>laravel-vicafe-erp</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>wordpress-bagelboys-website</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="E18" t="n">
-        <v>117</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-97</v>
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>634</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-530</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-addexpert-hrm_AYqr4KMc_aRx5xCzLwyo</t>
+          <t>SELISEdigitalplatforms_l3-angular-ipex-upload_e8004eb2-02fb-433d-a4c8-b92f31fe7456</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>angular-addexpert-hrm</t>
+          <t>angular-ipex-upload</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-8</v>
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>l3-net-lunge-business</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1004,23 +1004,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>angular-sln-fcsk</t>
+          <t>net-lunge-business</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="E22" t="n">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-108</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Security_Hotspot_comparison.xlsx
+++ b/Security_Hotspot_comparison.xlsx
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
+          <t>l3-angular-sln-fccz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,49 +510,49 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>angular-sln-at</t>
+          <t>angular-sln-fccz</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>-91</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l3-angular-lunge-business</t>
+          <t>l3-laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>angular-lunge-business</t>
+          <t>laravel-pharmalys-corporatewebsite</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>-35</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
+          <t>l3-laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -562,23 +562,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>wordpress-ibcchur-website</t>
+          <t>laravel-pharmalys-brandwebsite</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-26</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
+          <t>l3-angular-sln-fcsk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,49 +588,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>angular-gensubway-backoffice</t>
+          <t>angular-sln-fcsk</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>-9</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l3-angular-ipex-business</t>
+          <t>l3-angular-sln-cz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stg-aks</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>angular-ipex-business</t>
+          <t>angular-sln-cz</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>-40</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-corporatewebsite</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -640,23 +640,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-corporatewebsite</t>
+          <t>wordpress-bagelboys-website</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-10</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>l3-net-finsy-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-gensubway-backoffice_AYmGu4qY_aRx5xCzLszk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -666,49 +666,49 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>net-finsy-business</t>
+          <t>angular-gensubway-backoffice</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fccz</t>
+          <t>l3-angular-ipex-business</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stg-aks</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>angular-sln-fccz</t>
+          <t>angular-ipex-business</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-108</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>l3-angular-sln-fcsk</t>
+          <t>SELISEdigitalplatforms_l3-angular-sln-at_AYrGamu0_aRx5xCzLxUn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -718,23 +718,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>angular-sln-fcsk</t>
+          <t>angular-sln-at</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-59</v>
+        <v>-91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l3-angular-sln-cz</t>
+          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -744,23 +744,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>angular-sln-cz</t>
+          <t>net-clm-business</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>117</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>-97</v>
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
+          <t>l3-net-lunge-business</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,23 +770,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>angular-magnethub-business</t>
+          <t>net-lunge-business</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>-31</v>
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l3-angular-crm-sko</t>
+          <t>l3-net-finsy-business</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>angular-crm-sko</t>
+          <t>net-finsy-business</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>49</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>-3</v>
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -838,85 +838,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l3-laravel-vicafe-erp</t>
+          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>laravel-vicafe-erp</t>
+          <t>net-vorwerk-kiwi</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
+          <t>l3-angular-crm-sko</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>laravel-ronreload-backend</t>
+          <t>angular-crm-sko</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>634</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-530</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l3-laravel-pharmalys-brandwebsite</t>
+          <t>l3-angular-lunge-business</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>stage</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>laravel-pharmalys-brandwebsite</t>
+          <t>angular-lunge-business</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>-4</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-wordpress-bagelboys-website_AY-P2f3cgH6yUMlbh8Ti</t>
+          <t>SELISEdigitalplatforms_l3-wordpress-ibcchur-website_AY8FxhuFID568PNnQuue</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -926,43 +926,43 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>wordpress-bagelboys-website</t>
+          <t>wordpress-ibcchur-website</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>-107</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-vorwerk-kiwi_f8adebe8-80cd-45a9-ac02-b4bde0019fd0</t>
+          <t>l3-laravel-vicafe-erp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>net-vorwerk-kiwi</t>
+          <t>laravel-vicafe-erp</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>l3-net-lunge-business</t>
+          <t>SELISEdigitalplatforms_l3-angular-magnethub-business_AYqsBO3m_aRx5xCzLwzS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1004,43 +1004,43 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>net-lunge-business</t>
+          <t>angular-magnethub-business</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>-31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SELISEdigitalplatforms_l3-net-clm-business_AYr6qlBR_aRx5xCzLyR9</t>
+          <t>SELISEdigitalplatforms_l3-laravel-ronreload-backend_c8d81364-6b85-475d-a873-9664d0789076</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>stage</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>net-clm-business</t>
+          <t>laravel-ronreload-backend</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>62</v>
+        <v>634</v>
       </c>
       <c r="E22" t="n">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>-530</v>
       </c>
     </row>
   </sheetData>
